--- a/data/trans_camb/P19C06-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C06-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.618935208117384</v>
+        <v>-2.552638701058284</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.471433914124548</v>
+        <v>-2.450632165621953</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.907801042941235</v>
+        <v>-3.946864414902116</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.164248243045884</v>
+        <v>-1.26597255211556</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.337329617309742</v>
+        <v>-1.136709506835599</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.674403476812374</v>
+        <v>-1.655229830951712</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.443747555746553</v>
+        <v>-1.304003582358064</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.217348698399539</v>
+        <v>-1.197406239426535</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.138407715182637</v>
+        <v>-2.04822866806702</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4033846378792884</v>
+        <v>0.3864770300500752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8792658119279398</v>
+        <v>0.7682102537361291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9251022369978398</v>
+        <v>-0.9313071030371194</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.403123192446038</v>
+        <v>1.328363839506508</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.294573734358304</v>
+        <v>1.253668735832528</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7004128250654987</v>
+        <v>0.5805996010105759</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5659193380436853</v>
+        <v>0.6282932207701492</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7766147138485803</v>
+        <v>0.7069439279489143</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.2944338007469473</v>
+        <v>-0.2714159892934411</v>
       </c>
     </row>
     <row r="7">
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8382692164638119</v>
+        <v>-0.8221932940360899</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7691383904672271</v>
+        <v>-0.7418213975301041</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-0.5387167005053352</v>
+        <v>-0.5827848524263541</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.597001510786332</v>
+        <v>-0.5277055663405531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.737822385114199</v>
+        <v>-0.7471666874202411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5898160417788276</v>
+        <v>-0.5657104837080962</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5388530676613993</v>
+        <v>-0.5028248994577778</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.8647434450163511</v>
+        <v>-0.8436101613126524</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.431509375228584</v>
+        <v>0.4449786618398494</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.01274238127179</v>
+        <v>0.9838671436755557</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>1.5407449754755</v>
+        <v>1.456340091299287</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.46228810539983</v>
+        <v>1.371189844397106</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8164026765713216</v>
+        <v>0.6911491254209879</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4707022078217172</v>
+        <v>0.5866844652771676</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6976165304160334</v>
+        <v>0.67783542118833</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1894616860306135</v>
+        <v>-0.09012815692718297</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +885,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5680208940633549</v>
+        <v>-0.6188290650246279</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8788692615790159</v>
+        <v>-0.9127610395034215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.9979720543309576</v>
+        <v>-1.042963816572057</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01102591304243214</v>
+        <v>-0.06313022319030172</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.6006758817974623</v>
+        <v>-0.5733712302258788</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.2725755018200881</v>
+        <v>-0.3435962258285444</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.06533560104960069</v>
+        <v>-0.08460313075181189</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.5184512004001497</v>
+        <v>-0.4752880500638441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.378600494711192</v>
+        <v>-0.3129506346122106</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.637524056621189</v>
+        <v>1.5979369997274</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.131722841878082</v>
+        <v>1.106848077492729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8994690735001316</v>
+        <v>0.8212745038226941</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.870462693946937</v>
+        <v>1.785521553788193</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.057873833993737</v>
+        <v>1.025731364250848</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.21722278994425</v>
+        <v>1.173658445626543</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.376005147328932</v>
+        <v>1.341122963407205</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7266931526303333</v>
+        <v>0.7130918246051504</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7363676081078603</v>
+        <v>0.7628354084277378</v>
       </c>
     </row>
     <row r="13">
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4704674882779875</v>
+        <v>-0.5374952521511251</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6986710480950856</v>
+        <v>-0.741812104882325</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7409684333947218</v>
+        <v>-0.7672439364152099</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2787395322984945</v>
+        <v>-0.2921174306927233</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7365560217730639</v>
+        <v>-0.723622758287654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3984260529047798</v>
+        <v>-0.4204433805229026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1250384230238909</v>
+        <v>-0.1226954782352054</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5172284518387751</v>
+        <v>-0.5182470712357294</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3681647523344896</v>
+        <v>-0.3329754735301346</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.066919540469934</v>
+        <v>3.105170318637904</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.594189886264631</v>
+        <v>2.051068046272103</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.186969246104121</v>
+        <v>1.62282336124127</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7.540107209918212</v>
+        <v>6.988587748867459</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.740292726346694</v>
+        <v>4.638158552885868</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.585284845860246</v>
+        <v>5.104114369581474</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.728101808809445</v>
+        <v>2.540666418423155</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.574200772189003</v>
+        <v>1.560218824342062</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.596425928596158</v>
+        <v>1.736194337342736</v>
       </c>
     </row>
     <row r="16">
@@ -1070,7 +1070,7 @@
         <v>1.009690196187748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.5374678661399962</v>
+        <v>0.5374678661399959</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.5580763424085599</v>
@@ -1079,7 +1079,7 @@
         <v>1.167541563587181</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.08670541932671497</v>
+        <v>0.08670541932671513</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5440274923080715</v>
@@ -1088,7 +1088,7 @@
         <v>1.084612777834842</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.316526999338358</v>
+        <v>0.3165269993383582</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1099,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.340888286255729</v>
+        <v>-0.3033555982911104</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.02246909192696255</v>
+        <v>0.09910390232466415</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.28872273329248</v>
+        <v>-0.3268624980765856</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4358494674708029</v>
+        <v>-0.4780643073354485</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04547288620079219</v>
+        <v>-0.01143478739984388</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.7802862688200364</v>
+        <v>-0.741062909706978</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1335838066067937</v>
+        <v>-0.1906616625278666</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2942232402378107</v>
+        <v>0.2939104448801549</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2719990611954983</v>
+        <v>-0.3108045485155095</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1134,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.535277970869605</v>
+        <v>1.561237305710317</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.406916689951956</v>
+        <v>2.57064723730981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.711063742065741</v>
+        <v>1.611241288550958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.757403334411781</v>
+        <v>1.670204977137314</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.545907437847062</v>
+        <v>2.616826967155374</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8079399659399655</v>
+        <v>0.8584565128395104</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.314357773882034</v>
+        <v>1.24131769321739</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.07528233691741</v>
+        <v>1.995816806990804</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9539224395781618</v>
+        <v>0.9340098355021574</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>1.505184839085111</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8012244613880751</v>
+        <v>0.8012244613880747</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.5994146069805972</v>
@@ -1184,7 +1184,7 @@
         <v>1.254024609698968</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09312793053456903</v>
+        <v>0.09312793053456921</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.6832446445400709</v>
@@ -1193,7 +1193,7 @@
         <v>1.362166218312623</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.3975265592419824</v>
+        <v>0.3975265592419827</v>
       </c>
     </row>
     <row r="20">
@@ -1204,31 +1204,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.420540516867627</v>
+        <v>-0.3737638886788504</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2167235871477109</v>
+        <v>-0.1039695534998516</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4290589653806781</v>
+        <v>-0.4397319463938499</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3683449045711775</v>
+        <v>-0.463007338741576</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.06466848883667764</v>
+        <v>-0.2067188589129121</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5644769496774351</v>
+        <v>-0.5525376440694082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2210187183482605</v>
+        <v>-0.2045790050677352</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2287015335959704</v>
+        <v>0.1552414401113318</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2643776242082953</v>
+        <v>-0.2932653946555518</v>
       </c>
     </row>
     <row r="21">
@@ -1239,31 +1239,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>4.872078145317874</v>
+        <v>5.455258235489402</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>6.827920216458188</v>
+        <v>8.478780167298273</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.952113904666272</v>
+        <v>5.392588512132349</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>3.454386707512535</v>
+        <v>3.324208033875673</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.610716534109721</v>
+        <v>4.935629442916642</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.8399858582411</v>
+        <v>1.883470975988651</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.198610402330949</v>
+        <v>2.378445022998947</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.87227276546328</v>
+        <v>3.62665555734991</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.0470642428586</v>
+        <v>1.999999859579316</v>
       </c>
     </row>
     <row r="22">
@@ -1302,7 +1302,7 @@
         <v>-1.091108435394791</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.7765544492092356</v>
+        <v>-0.7765544492092354</v>
       </c>
     </row>
     <row r="23">
@@ -1313,31 +1313,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.50410184416914</v>
+        <v>-3.70834062742795</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.940575965460362</v>
+        <v>-2.848572112351366</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.909565301026498</v>
+        <v>-2.998471931064034</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.465730470181536</v>
+        <v>-3.210910245590557</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.293415039660311</v>
+        <v>-3.116445078774758</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.617046028925628</v>
+        <v>-2.784428985425438</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.58498549273859</v>
+        <v>-2.638003154799978</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.461323958551703</v>
+        <v>-2.288975910766171</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.234743781422977</v>
+        <v>-2.241888093950419</v>
       </c>
     </row>
     <row r="24">
@@ -1348,31 +1348,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.5578108389221651</v>
+        <v>-0.5624303177530089</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1311478953968593</v>
+        <v>0.2366922451472277</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.207758509835819</v>
+        <v>0.1745936655847565</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3495160487988286</v>
+        <v>0.4763077757395691</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3680370548140914</v>
+        <v>0.5200136674553373</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7815325642920893</v>
+        <v>0.9450164962598577</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.2723094414798749</v>
+        <v>-0.4443077182235232</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.002075278875885813</v>
+        <v>-0.1054886081682916</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1808573690292497</v>
+        <v>0.06600649966312706</v>
       </c>
     </row>
     <row r="25">
@@ -1407,7 +1407,7 @@
         <v>-0.643994343308378</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.4583381965888231</v>
+        <v>-0.458338196588823</v>
       </c>
     </row>
     <row r="26">
@@ -1418,27 +1418,27 @@
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E26" s="6" t="n">
-        <v>-0.912500906989004</v>
+        <v>-0.9272342263066146</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="6" t="inlineStr"/>
+      <c r="H26" s="6" t="n">
+        <v>-0.7805571662923462</v>
+      </c>
+      <c r="I26" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H26" s="6" t="n">
-        <v>-0.7588354124203889</v>
-      </c>
-      <c r="I26" s="6" t="n">
-        <v>-0.9495676156990012</v>
-      </c>
       <c r="J26" s="6" t="n">
-        <v>-0.9043342904778183</v>
+        <v>-0.8919104121434233</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.7615598155131023</v>
+        <v>-0.7565824664477949</v>
       </c>
     </row>
     <row r="27">
@@ -1449,27 +1449,27 @@
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>2.355022490395891</v>
+      </c>
       <c r="E27" s="6" t="n">
-        <v>0.6133038426018588</v>
+        <v>0.6497232202667387</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.440356344277002</v>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>1.026127708829796</v>
-      </c>
+        <v>1.1414550958155</v>
+      </c>
+      <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>1.211367060779817</v>
+        <v>1.611334678929632</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1032328802874402</v>
+        <v>-0.3093755484922784</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1804666509782268</v>
+        <v>0.06896097646013261</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2569734828657422</v>
+        <v>0.1369965801994714</v>
       </c>
     </row>
     <row r="28">
@@ -1490,7 +1490,7 @@
         <v>0.08495014349144785</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.3574313449559972</v>
+        <v>-0.3574313449559971</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.3393302395759539</v>
@@ -1519,31 +1519,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.6720584646516916</v>
+        <v>-0.6700611695145094</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5358161006274226</v>
+        <v>-0.5267505084426209</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.8712160436880398</v>
+        <v>-0.9507715023075946</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.2478148036288619</v>
+        <v>-0.186726989502565</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.2501420802875866</v>
+        <v>-0.3718946812455097</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.4443403222062599</v>
+        <v>-0.4484881106560213</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.3060956997264483</v>
+        <v>-0.2566961728042588</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2203007321724584</v>
+        <v>-0.2228420980547383</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.4990109393298288</v>
+        <v>-0.5472101166074086</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1554,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5006211023285896</v>
+        <v>0.4709706211491866</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7067887560835352</v>
+        <v>0.7351021294874706</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2406962472400509</v>
+        <v>0.1208503660684857</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9430196802659163</v>
+        <v>0.9138209835325999</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.8322512095519785</v>
+        <v>0.8202003900485252</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.52307532227945</v>
+        <v>0.4942184612025397</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5465935070149278</v>
+        <v>0.580349722194528</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6196464830017917</v>
+        <v>0.6192850613057292</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1853872703721287</v>
+        <v>0.1797333673450141</v>
       </c>
     </row>
     <row r="31">
@@ -1595,7 +1595,7 @@
         <v>0.07652624530458173</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3219874347405063</v>
+        <v>-0.3219874347405062</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3168969595685971</v>
@@ -1624,31 +1624,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4752102779640591</v>
+        <v>-0.4752260891722068</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3865425252836934</v>
+        <v>-0.3795455663424142</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6289708194774499</v>
+        <v>-0.6320199255623166</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2106249116400239</v>
+        <v>-0.1847019028656976</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1981898561844145</v>
+        <v>-0.2670758223482615</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3335159179167121</v>
+        <v>-0.3348060626801856</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2366660338593462</v>
+        <v>-0.2006450851835788</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1788270556719016</v>
+        <v>-0.1804242539721498</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3882934873376774</v>
+        <v>-0.4143642631931243</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1659,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6067584519130755</v>
+        <v>0.6311605858627799</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8656069370401489</v>
+        <v>0.8839399734158441</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2825068809948288</v>
+        <v>0.2246260417902558</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.136976768280793</v>
+        <v>1.179709720586809</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9943121361959784</v>
+        <v>0.9882452407024184</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.6995910968524855</v>
+        <v>0.6251830687417669</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6112225334851371</v>
+        <v>0.6980982231446972</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.7171541650834206</v>
+        <v>0.7138674812167886</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.213617524830655</v>
+        <v>0.1952901518606424</v>
       </c>
     </row>
     <row r="34">
